--- a/salida.xlsx
+++ b/salida.xlsx
@@ -65,7 +65,7 @@
     <t xml:space="preserve">HOTEL</t>
   </si>
   <si>
-    <t xml:space="preserve">H. Marina</t>
+    <t xml:space="preserve">H. Aixo</t>
   </si>
   <si>
     <t xml:space="preserve">DIRECCION</t>
@@ -89,28 +89,13 @@
     <t xml:space="preserve">Medida</t>
   </si>
   <si>
-    <t xml:space="preserve">Sandia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
+    <t xml:space="preserve">Papaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
   </si>
   <si>
     <t xml:space="preserve">Unidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piña</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">REALIZADO POR</t>
@@ -142,6 +127,56 @@
       <b/>
     </font>
     <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
   </fonts>
   <fills>
     <fill>
@@ -152,6 +187,56 @@
     </fill>
     <fill/>
     <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
   </fills>
   <borders>
     <border>
@@ -162,15 +247,565 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -187,6 +822,56 @@
     <xf fontId="2" fillId="3" borderId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="3" fillId="4" borderId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="4" fillId="5" borderId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="5" fillId="6" borderId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="6" fillId="7" borderId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="7" fillId="8" borderId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="8" fillId="9" borderId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="9" fillId="10" borderId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="10" fillId="11" borderId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="11" fillId="12" borderId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="12" fillId="13" borderId="12" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="13" fillId="14" borderId="13" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="14" fillId="15" borderId="14" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="15" fillId="16" borderId="15" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="16" fillId="17" borderId="16" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="17" fillId="18" borderId="17" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="18" fillId="19" borderId="18" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="19" fillId="20" borderId="19" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="20" fillId="21" borderId="20" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="21" fillId="22" borderId="21" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="22" fillId="23" borderId="22" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="23" fillId="24" borderId="23" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="24" fillId="25" borderId="24" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="25" fillId="26" borderId="25" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="26" fillId="27" borderId="26" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="27" fillId="28" borderId="27" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="28" fillId="29" borderId="28" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="29" fillId="30" borderId="29" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="30" fillId="31" borderId="30" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="31" fillId="32" borderId="31" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="32" fillId="33" borderId="32" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="33" fillId="34" borderId="33" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="34" fillId="35" borderId="34" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="35" fillId="36" borderId="35" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="36" fillId="37" borderId="36" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="37" fillId="38" borderId="37" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="38" fillId="39" borderId="38" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="39" fillId="40" borderId="39" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="40" fillId="41" borderId="40" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="41" fillId="42" borderId="41" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="42" fillId="43" borderId="42" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="43" fillId="44" borderId="43" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="44" fillId="45" borderId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="45" fillId="46" borderId="45" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="46" fillId="47" borderId="46" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="47" fillId="48" borderId="47" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="48" fillId="49" borderId="48" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="49" fillId="50" borderId="49" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="50" fillId="51" borderId="50" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="51" fillId="52" borderId="51" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="52" fillId="53" borderId="52" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,235 +1162,139 @@
       <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="D1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="8">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3"/>
-      <c r="D3"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="14">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="16">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="17">
         <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="18">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="20">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="21">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="22">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="23">
         <v>13</v>
       </c>
-      <c r="D6"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="26">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="27">
         <v>15</v>
       </c>
-      <c r="D7"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
         <v>16</v>
       </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
     </row>
     <row r="9">
-      <c r="D9"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="37">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="38">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="39">
         <v>19</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="40">
         <v>20</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11">
+      <c r="A11" s="41">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="42">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="43">
         <v>22</v>
       </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="D11" t="s" s="44">
         <v>23</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
+      <c r="A13" t="s" s="45">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s" s="46">
+        <v>25</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
     </row>
     <row r="14">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A14" t="s" s="49">
         <v>26</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B14" t="s" s="50">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
     </row>
   </sheetData>
   <mergeCells>
